--- a/server/attendance.xlsx
+++ b/server/attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\mini-project-bfrs\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8FED31-F5A2-4F16-AFF4-C3539B0961B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C9CA4C-EB1A-40DD-8065-33714C71C397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6A5EC8A6-BB18-084E-BA6B-34BEA8E98547}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:D716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
